--- a/TP3/EJ4/Mediciones/Ej4_Bode_k05.xlsx
+++ b/TP3/EJ4/Mediciones/Ej4_Bode_k05.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E93A8C-4072-47F4-A870-2C71DBEA5C50}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90119089-701F-4903-8691-8C0ECC481D11}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Freq</t>
   </si>
@@ -380,8 +380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,7 +568,7 @@
         <v>200</v>
       </c>
       <c r="C15" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>250</v>
       </c>
       <c r="C16" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -594,7 +594,7 @@
         <v>300</v>
       </c>
       <c r="C17" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -607,7 +607,7 @@
         <v>350</v>
       </c>
       <c r="C18" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>400</v>
       </c>
       <c r="C19" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>500</v>
       </c>
       <c r="C20" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>600</v>
       </c>
       <c r="C21" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>700</v>
       </c>
       <c r="C22" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>800</v>
       </c>
       <c r="C23" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D23" s="1">
         <v>-1</v>
@@ -685,7 +685,7 @@
         <v>900</v>
       </c>
       <c r="C24" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D24" s="1">
         <v>-1</v>
@@ -698,7 +698,7 @@
         <v>1000</v>
       </c>
       <c r="C25" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D25" s="1">
         <v>-1</v>
@@ -711,7 +711,7 @@
         <v>1500</v>
       </c>
       <c r="C26" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>2000</v>
       </c>
       <c r="C27" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>2500</v>
       </c>
       <c r="C28" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>3000</v>
       </c>
       <c r="C29" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>4000</v>
       </c>
       <c r="C30" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>5000</v>
       </c>
       <c r="C31" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D31" s="1">
         <v>-1</v>
@@ -789,7 +789,7 @@
         <v>6000</v>
       </c>
       <c r="C32" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D32" s="1">
         <v>-1</v>
@@ -802,7 +802,7 @@
         <v>7000</v>
       </c>
       <c r="C33" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D33" s="1">
         <v>-1</v>
@@ -815,7 +815,7 @@
         <v>8000</v>
       </c>
       <c r="C34" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D34" s="1">
         <v>-1</v>
@@ -828,7 +828,7 @@
         <v>9000</v>
       </c>
       <c r="C35" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D35" s="1">
         <v>-2</v>
@@ -841,7 +841,7 @@
         <v>10000</v>
       </c>
       <c r="C36" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D36" s="1">
         <v>-2</v>
